--- a/results/training_results/ensemble_classifier_scores.xlsx
+++ b/results/training_results/ensemble_classifier_scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Google drive\BSC\programs\enzyminer\results\no_error\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Google drive\BSC\programs\enzyminer\results\training_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3C081F-3D9D-40B5-9A0B-30E409C17F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D299ED-F2C2-4F60-AD2B-EDB858E39CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esterase_20" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="68">
   <si>
     <t>test_tn</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>ensemble5</t>
-  </si>
-  <si>
-    <t>ensemble6</t>
   </si>
   <si>
     <t>precision_svc</t>
@@ -312,9 +309,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -323,10 +317,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:X7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,28 +701,28 @@
         <v>0.5273528078841877</v>
       </c>
       <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -1065,7 +1062,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -1100,117 +1097,117 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AG13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AI13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AJ13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ13" s="1" t="s">
+      <c r="AK13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0.73076923076923073</v>
@@ -1323,7 +1320,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0.83333333333333337</v>
@@ -1436,7 +1433,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0.76315789473684215</v>
@@ -1549,7 +1546,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0.78205128205128205</v>
@@ -1662,7 +1659,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0.77665317139001344</v>
@@ -1775,117 +1772,117 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AG21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AH21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AI21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ21" s="1" t="s">
+      <c r="AK21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0.76470588235294112</v>
@@ -1998,7 +1995,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0.81818181818181823</v>
@@ -2111,7 +2108,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0.7857142857142857</v>
@@ -2224,7 +2221,7 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0.79144385026737973</v>
@@ -2337,7 +2334,7 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0.78953399541634828</v>
@@ -2458,7 +2455,7 @@
   <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23:AJ23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,7 +2774,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -2812,117 +2809,117 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AG13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AI13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AJ13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ13" s="1" t="s">
+      <c r="AK13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0.73333333333333328</v>
@@ -3035,7 +3032,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0.81578947368421051</v>
@@ -3148,7 +3145,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0.76106194690265483</v>
@@ -3261,7 +3258,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0.7745614035087719</v>
@@ -3374,7 +3371,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0.77054805154479111</v>
@@ -3487,117 +3484,117 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AG21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AH21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AI21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ21" s="1" t="s">
+      <c r="AK21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0.75</v>
@@ -3710,7 +3707,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0.88888888888888884</v>
@@ -3823,7 +3820,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0.7931034482758621</v>
@@ -3936,7 +3933,7 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0.81944444444444442</v>
@@ -4049,7 +4046,7 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0.81226053639846751</v>
@@ -4169,8 +4166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23:AJ23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4489,7 +4486,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -4524,117 +4521,117 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AG13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AI13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AJ13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ13" s="1" t="s">
+      <c r="AK13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0.73076923076923073</v>
@@ -4747,7 +4744,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0.8529411764705882</v>
@@ -4860,7 +4857,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0.7678571428571429</v>
@@ -4973,7 +4970,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0.79185520361990946</v>
@@ -5086,7 +5083,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0.78531027795733677</v>
@@ -5199,117 +5196,117 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AG21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AH21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AI21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ21" s="1" t="s">
+      <c r="AK21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0.73684210526315785</v>
@@ -5422,7 +5419,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0.81818181818181823</v>
@@ -5535,7 +5532,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0.76666666666666672</v>
@@ -5648,7 +5645,7 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0.77751196172248804</v>
@@ -5761,7 +5758,7 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0.77480063795853271</v>
@@ -5881,8 +5878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23:AJ23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6201,7 +6198,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -6236,117 +6233,117 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AG13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AI13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AJ13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ13" s="1" t="s">
+      <c r="AK13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0.71794871794871795</v>
@@ -6459,7 +6456,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0.80555555555555558</v>
@@ -6572,7 +6569,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0.74561403508771928</v>
@@ -6685,7 +6682,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0.76175213675213671</v>
@@ -6798,7 +6795,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0.75714125056230319</v>
@@ -6911,117 +6908,117 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AG21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AH21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AI21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ21" s="1" t="s">
+      <c r="AK21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0.7142857142857143</v>
@@ -7134,7 +7131,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7247,7 +7244,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0.7857142857142857</v>
@@ -7360,7 +7357,7 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0.85714285714285721</v>
@@ -7473,7 +7470,7 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0.84693877551020413</v>
@@ -7593,8 +7590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23:AJ23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7913,7 +7910,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -7948,117 +7945,117 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AG13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AI13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AJ13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ13" s="1" t="s">
+      <c r="AK13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0.72727272727272729</v>
@@ -8171,7 +8168,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0.81081081081081086</v>
@@ -8284,7 +8281,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0.75438596491228072</v>
@@ -8397,7 +8394,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0.76904176904176902</v>
@@ -8510,7 +8507,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0.76464502780292254</v>
@@ -8623,117 +8620,117 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AG21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AH21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AI21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ21" s="1" t="s">
+      <c r="AK21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0.7142857142857143</v>
@@ -8846,7 +8843,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -8959,7 +8956,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0.7857142857142857</v>
@@ -9072,7 +9069,7 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0.85714285714285721</v>
@@ -9185,7 +9182,7 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0.84693877551020413</v>
@@ -9305,7 +9302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC188251-F5EA-4E98-8106-35CABEFD153E}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -9313,112 +9310,112 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="11"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="7">
+        <v>64</v>
+      </c>
+      <c r="B2" s="6">
         <v>0.83724699999999996</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>1.2735793025956401E-2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>0.60619599999999996</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>2.9381053640058601E-2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.70280379999999998</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>1.8951764223945001E-2</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="7">
+        <v>65</v>
+      </c>
+      <c r="B3" s="6">
         <v>0.8147742</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1.77443006117457E-2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0.63764719999999997</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>3.1931495301660999E-2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>0.71481240000000001</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>1.7245234205426199E-2</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="7">
+        <v>66</v>
+      </c>
+      <c r="B4" s="6">
         <v>0.89873740000000002</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>4.4975970154072301E-2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.71278419999999998</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>2.7726298656690601E-2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0.79392980000000002</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>1.12068061998055E-2</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="7">
+        <v>67</v>
+      </c>
+      <c r="B5" s="6">
         <v>0.95954019999999995</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>3.6415197331608702E-2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.69663240000000004</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>1.73956738386301E-2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.80694180000000004</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>1.8917054651821402E-2</v>
       </c>
       <c r="J5" s="3"/>
@@ -9481,116 +9478,116 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="10">
+        <v>0.93030299999999999</v>
+      </c>
+      <c r="C2" s="10">
+        <v>9.5586760286139993E-2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.63516519999999999</v>
+      </c>
+      <c r="E2" s="10">
+        <v>7.0106030587246904E-2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.74860819999999995</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2.8033925317372199E-2</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="12">
-        <v>0.93030299999999999</v>
-      </c>
-      <c r="C2" s="12">
-        <v>9.5586760286139993E-2</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.63516519999999999</v>
-      </c>
-      <c r="E2" s="12">
-        <v>7.0106030587246904E-2</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0.74860819999999995</v>
-      </c>
-      <c r="G2" s="12">
-        <v>2.8033925317372199E-2</v>
-      </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="10">
+        <v>0.911111</v>
+      </c>
+      <c r="C3" s="10">
+        <v>8.4254318129695902E-2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.65054979999999996</v>
+      </c>
+      <c r="E3" s="10">
+        <v>9.1082835444994806E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.75168179999999996</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3.87747812979004E-2</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="12">
-        <v>0.911111</v>
-      </c>
-      <c r="C3" s="12">
-        <v>8.4254318129695902E-2</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0.65054979999999996</v>
-      </c>
-      <c r="E3" s="12">
-        <v>9.1082835444994806E-2</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0.75168179999999996</v>
-      </c>
-      <c r="G3" s="12">
-        <v>3.87747812979004E-2</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="10">
+        <v>0.86926400000000004</v>
+      </c>
+      <c r="C4" s="10">
+        <v>8.5963802862018601E-2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.74175840000000004</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4.5640624429339298E-2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.79744579999999998</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3.2066899291949003E-2</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="12">
-        <v>0.86926400000000004</v>
-      </c>
-      <c r="C4" s="12">
-        <v>8.5963802862018601E-2</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.74175840000000004</v>
-      </c>
-      <c r="E4" s="12">
-        <v>4.5640624429339298E-2</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.79744579999999998</v>
-      </c>
-      <c r="G4" s="12">
-        <v>3.2066899291949003E-2</v>
-      </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>0.93777779999999999</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>9.0812503897866395E-2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>0.73656580000000005</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>8.7818948824840801E-2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>0.81957040000000003</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>4.6218795546833502E-2</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
